--- a/relatorios/repasses_liberados/dentistas/70248859471/2023-08-25_relatorio_repasses_70248859471.xlsx
+++ b/relatorios/repasses_liberados/dentistas/70248859471/2023-08-25_relatorio_repasses_70248859471.xlsx
@@ -26022,7 +26022,7 @@
         <v>0</v>
       </c>
       <c r="M549">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N549">
         <v>0</v>
@@ -26110,7 +26110,7 @@
         <v>0</v>
       </c>
       <c r="M551">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N551">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="M557">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N557">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>0</v>
       </c>
       <c r="M558">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N558">
         <v>0</v>
@@ -26506,7 +26506,7 @@
         <v>0</v>
       </c>
       <c r="M560">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N560">
         <v>0</v>
@@ -26550,7 +26550,7 @@
         <v>0</v>
       </c>
       <c r="M561">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N561">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="M581">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N581">
         <v>0</v>
@@ -27474,7 +27474,7 @@
         <v>0</v>
       </c>
       <c r="M582">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N582">
         <v>0</v>
@@ -27914,7 +27914,7 @@
         <v>0</v>
       </c>
       <c r="M592">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N592">
         <v>0</v>
@@ -27958,7 +27958,7 @@
         <v>0</v>
       </c>
       <c r="M593">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N593">
         <v>0</v>
@@ -28442,7 +28442,7 @@
         <v>0</v>
       </c>
       <c r="M604">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N604">
         <v>0</v>
@@ -28486,7 +28486,7 @@
         <v>0</v>
       </c>
       <c r="M605">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N605">
         <v>0</v>
@@ -28926,7 +28926,7 @@
         <v>0</v>
       </c>
       <c r="M615">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N615">
         <v>0</v>
@@ -29014,7 +29014,7 @@
         <v>0</v>
       </c>
       <c r="M617">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N617">
         <v>0</v>
@@ -29410,7 +29410,7 @@
         <v>0</v>
       </c>
       <c r="M626">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N626">
         <v>0</v>
@@ -29454,7 +29454,7 @@
         <v>0</v>
       </c>
       <c r="M627">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N627">
         <v>0</v>
@@ -29586,7 +29586,7 @@
         <v>0</v>
       </c>
       <c r="M630">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N630">
         <v>0</v>
@@ -29630,7 +29630,7 @@
         <v>0</v>
       </c>
       <c r="M631">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N631">
         <v>0</v>
@@ -30950,7 +30950,7 @@
         <v>0</v>
       </c>
       <c r="M661">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N661">
         <v>0</v>
@@ -30994,7 +30994,7 @@
         <v>0</v>
       </c>
       <c r="M662">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N662">
         <v>0</v>
@@ -31038,7 +31038,7 @@
         <v>0</v>
       </c>
       <c r="M663">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N663">
         <v>0</v>
@@ -31390,7 +31390,7 @@
         <v>0</v>
       </c>
       <c r="M671">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N671">
         <v>0</v>
@@ -31434,7 +31434,7 @@
         <v>0</v>
       </c>
       <c r="M672">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N672">
         <v>0</v>
@@ -31478,7 +31478,7 @@
         <v>0</v>
       </c>
       <c r="M673">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N673">
         <v>0</v>
@@ -32050,7 +32050,7 @@
         <v>0</v>
       </c>
       <c r="M686">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N686">
         <v>0</v>
@@ -32094,7 +32094,7 @@
         <v>0</v>
       </c>
       <c r="M687">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N687">
         <v>0</v>
@@ -32138,7 +32138,7 @@
         <v>0</v>
       </c>
       <c r="M688">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N688">
         <v>0</v>
@@ -32182,7 +32182,7 @@
         <v>0</v>
       </c>
       <c r="M689">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N689">
         <v>0</v>
@@ -32490,10 +32490,10 @@
         <v>1</v>
       </c>
       <c r="M696">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N696">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:14">
@@ -34074,7 +34074,7 @@
         <v>0</v>
       </c>
       <c r="M732">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N732">
         <v>0</v>
@@ -35790,7 +35790,7 @@
         <v>0</v>
       </c>
       <c r="M771">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N771">
         <v>0</v>
@@ -36758,7 +36758,7 @@
         <v>0</v>
       </c>
       <c r="M793">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N793">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="M797">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N797">
         <v>0</v>
@@ -38782,7 +38782,7 @@
         <v>0</v>
       </c>
       <c r="M839">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N839">
         <v>0</v>
@@ -38870,7 +38870,7 @@
         <v>0</v>
       </c>
       <c r="M841">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N841">
         <v>0</v>
@@ -39486,7 +39486,7 @@
         <v>0</v>
       </c>
       <c r="M855">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N855">
         <v>0</v>
@@ -39530,7 +39530,7 @@
         <v>0</v>
       </c>
       <c r="M856">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N856">
         <v>0</v>
@@ -39882,7 +39882,7 @@
         <v>0</v>
       </c>
       <c r="M864">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N864">
         <v>0</v>
@@ -39926,7 +39926,7 @@
         <v>0</v>
       </c>
       <c r="M865">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N865">
         <v>0</v>
@@ -39970,7 +39970,7 @@
         <v>0</v>
       </c>
       <c r="M866">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N866">
         <v>0</v>
@@ -40014,7 +40014,7 @@
         <v>0</v>
       </c>
       <c r="M867">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N867">
         <v>0</v>
@@ -40058,7 +40058,7 @@
         <v>0</v>
       </c>
       <c r="M868">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N868">
         <v>0</v>
@@ -40586,7 +40586,7 @@
         <v>0</v>
       </c>
       <c r="M880">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N880">
         <v>0</v>
@@ -40982,7 +40982,7 @@
         <v>0</v>
       </c>
       <c r="M889">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N889">
         <v>0</v>
@@ -41334,7 +41334,7 @@
         <v>0</v>
       </c>
       <c r="M897">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N897">
         <v>0</v>
@@ -41554,7 +41554,7 @@
         <v>0</v>
       </c>
       <c r="M902">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N902">
         <v>0</v>
@@ -41730,7 +41730,7 @@
         <v>0</v>
       </c>
       <c r="M906">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N906">
         <v>0</v>
@@ -42258,7 +42258,7 @@
         <v>0</v>
       </c>
       <c r="M918">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N918">
         <v>0</v>
@@ -42478,7 +42478,7 @@
         <v>0</v>
       </c>
       <c r="M923">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N923">
         <v>0</v>
@@ -42610,7 +42610,7 @@
         <v>0</v>
       </c>
       <c r="M926">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N926">
         <v>0</v>
@@ -43534,7 +43534,7 @@
         <v>0</v>
       </c>
       <c r="M947">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N947">
         <v>0</v>
@@ -43622,7 +43622,7 @@
         <v>0</v>
       </c>
       <c r="M949">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N949">
         <v>0</v>
@@ -43798,7 +43798,7 @@
         <v>0</v>
       </c>
       <c r="M953">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N953">
         <v>0</v>
@@ -45250,7 +45250,7 @@
         <v>0</v>
       </c>
       <c r="M986">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N986">
         <v>0</v>
@@ -45338,7 +45338,7 @@
         <v>0</v>
       </c>
       <c r="M988">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N988">
         <v>0</v>
@@ -45822,7 +45822,7 @@
         <v>0</v>
       </c>
       <c r="M999">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N999">
         <v>0</v>
@@ -45866,7 +45866,7 @@
         <v>0</v>
       </c>
       <c r="M1000">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1000">
         <v>0</v>
@@ -47626,7 +47626,7 @@
         <v>0</v>
       </c>
       <c r="M1040">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N1040">
         <v>0</v>
@@ -47670,7 +47670,7 @@
         <v>0</v>
       </c>
       <c r="M1041">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N1041">
         <v>0</v>
@@ -49826,7 +49826,7 @@
         <v>0</v>
       </c>
       <c r="M1090">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1090">
         <v>0</v>
@@ -49870,7 +49870,7 @@
         <v>0</v>
       </c>
       <c r="M1091">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1091">
         <v>0</v>
@@ -50134,7 +50134,7 @@
         <v>0</v>
       </c>
       <c r="M1097">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1097">
         <v>0</v>
@@ -50178,7 +50178,7 @@
         <v>0</v>
       </c>
       <c r="M1098">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1098">
         <v>0</v>
@@ -50266,7 +50266,7 @@
         <v>0</v>
       </c>
       <c r="M1100">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N1100">
         <v>0</v>
@@ -50310,7 +50310,7 @@
         <v>0</v>
       </c>
       <c r="M1101">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1101">
         <v>0</v>
@@ -50354,7 +50354,7 @@
         <v>0</v>
       </c>
       <c r="M1102">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1102">
         <v>0</v>
@@ -50398,7 +50398,7 @@
         <v>0</v>
       </c>
       <c r="M1103">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1103">
         <v>0</v>
@@ -50442,7 +50442,7 @@
         <v>0</v>
       </c>
       <c r="M1104">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1104">
         <v>0</v>
@@ -51806,7 +51806,7 @@
         <v>0</v>
       </c>
       <c r="M1135">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1135">
         <v>0</v>
@@ -51850,7 +51850,7 @@
         <v>0</v>
       </c>
       <c r="M1136">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1136">
         <v>0</v>
@@ -52642,7 +52642,7 @@
         <v>0</v>
       </c>
       <c r="M1154">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1154">
         <v>0</v>
@@ -52686,7 +52686,7 @@
         <v>0</v>
       </c>
       <c r="M1155">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1155">
         <v>0</v>
@@ -52906,7 +52906,7 @@
         <v>0</v>
       </c>
       <c r="M1160">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1160">
         <v>0</v>
@@ -52950,7 +52950,7 @@
         <v>0</v>
       </c>
       <c r="M1161">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1161">
         <v>0</v>
@@ -52994,7 +52994,7 @@
         <v>0</v>
       </c>
       <c r="M1162">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1162">
         <v>0</v>
@@ -53038,7 +53038,7 @@
         <v>0</v>
       </c>
       <c r="M1163">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1163">
         <v>0</v>
@@ -53082,7 +53082,7 @@
         <v>0</v>
       </c>
       <c r="M1164">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1164">
         <v>0</v>
@@ -53698,7 +53698,7 @@
         <v>0</v>
       </c>
       <c r="M1178">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N1178">
         <v>0</v>
@@ -56382,7 +56382,7 @@
         <v>0</v>
       </c>
       <c r="M1239">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1239">
         <v>0</v>
@@ -56426,7 +56426,7 @@
         <v>0</v>
       </c>
       <c r="M1240">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1240">
         <v>0</v>
@@ -56690,7 +56690,7 @@
         <v>0</v>
       </c>
       <c r="M1246">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1246">
         <v>0</v>
@@ -56778,7 +56778,7 @@
         <v>0</v>
       </c>
       <c r="M1248">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1248">
         <v>0</v>
@@ -58318,7 +58318,7 @@
         <v>0</v>
       </c>
       <c r="M1283">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1283">
         <v>0</v>
@@ -58406,7 +58406,7 @@
         <v>0</v>
       </c>
       <c r="M1285">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1285">
         <v>0</v>
@@ -58626,7 +58626,7 @@
         <v>0</v>
       </c>
       <c r="M1290">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1290">
         <v>0</v>
@@ -58670,7 +58670,7 @@
         <v>0</v>
       </c>
       <c r="M1291">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1291">
         <v>0</v>
@@ -61530,7 +61530,7 @@
         <v>0</v>
       </c>
       <c r="M1356">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N1356">
         <v>0</v>

--- a/relatorios/repasses_liberados/dentistas/70248859471/2023-08-25_relatorio_repasses_70248859471.xlsx
+++ b/relatorios/repasses_liberados/dentistas/70248859471/2023-08-25_relatorio_repasses_70248859471.xlsx
@@ -8994,10 +8994,10 @@
         <v>0</v>
       </c>
       <c r="M162">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N162">
-        <v>7.26</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="163" spans="1:14">
@@ -9038,10 +9038,10 @@
         <v>0</v>
       </c>
       <c r="M163">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N163">
-        <v>7.26</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="164" spans="1:14">
@@ -9082,10 +9082,10 @@
         <v>0</v>
       </c>
       <c r="M164">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N164">
-        <v>7.26</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="165" spans="1:14">
@@ -9126,10 +9126,10 @@
         <v>0</v>
       </c>
       <c r="M165">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N165">
-        <v>7.26</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="166" spans="1:14">
@@ -9258,10 +9258,10 @@
         <v>0</v>
       </c>
       <c r="M168">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N168">
-        <v>7.26</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="169" spans="1:14">
@@ -9346,10 +9346,10 @@
         <v>0</v>
       </c>
       <c r="M170">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N170">
-        <v>7.26</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="171" spans="1:14">
@@ -9390,10 +9390,10 @@
         <v>0</v>
       </c>
       <c r="M171">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N171">
-        <v>9.843</v>
+        <v>13.124</v>
       </c>
     </row>
     <row r="172" spans="1:14">
@@ -9434,10 +9434,10 @@
         <v>0</v>
       </c>
       <c r="M172">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N172">
-        <v>9.843</v>
+        <v>13.124</v>
       </c>
     </row>
     <row r="173" spans="1:14">
@@ -9830,10 +9830,10 @@
         <v>0</v>
       </c>
       <c r="M181">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N181">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="182" spans="1:14">
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="M182">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N182">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="183" spans="1:14">
@@ -9962,10 +9962,10 @@
         <v>0</v>
       </c>
       <c r="M184">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N184">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:14">
@@ -10314,10 +10314,10 @@
         <v>0</v>
       </c>
       <c r="M192">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N192">
-        <v>9.843</v>
+        <v>13.124</v>
       </c>
     </row>
     <row r="193" spans="1:14">
@@ -11282,10 +11282,10 @@
         <v>0</v>
       </c>
       <c r="M214">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N214">
-        <v>8.709</v>
+        <v>11.612</v>
       </c>
     </row>
     <row r="215" spans="1:14">
@@ -11898,10 +11898,10 @@
         <v>0</v>
       </c>
       <c r="M228">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N228">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="229" spans="1:14">
@@ -11986,10 +11986,10 @@
         <v>0</v>
       </c>
       <c r="M230">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N230">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:14">
@@ -12030,10 +12030,10 @@
         <v>0</v>
       </c>
       <c r="M231">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N231">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:14">
@@ -13130,10 +13130,10 @@
         <v>0</v>
       </c>
       <c r="M256">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N256">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="257" spans="1:14">
@@ -13570,10 +13570,10 @@
         <v>0</v>
       </c>
       <c r="M266">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N266">
-        <v>6.861</v>
+        <v>9.148000000000001</v>
       </c>
     </row>
     <row r="267" spans="1:14">
@@ -14626,10 +14626,10 @@
         <v>0</v>
       </c>
       <c r="M290">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N290">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="291" spans="1:14">
@@ -14670,10 +14670,10 @@
         <v>0</v>
       </c>
       <c r="M291">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N291">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="292" spans="1:14">
@@ -15066,10 +15066,10 @@
         <v>0</v>
       </c>
       <c r="M300">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N300">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="301" spans="1:14">
@@ -15110,10 +15110,10 @@
         <v>0</v>
       </c>
       <c r="M301">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N301">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="302" spans="1:14">
@@ -15154,10 +15154,10 @@
         <v>0</v>
       </c>
       <c r="M302">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N302">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="303" spans="1:14">
@@ -15374,10 +15374,10 @@
         <v>0</v>
       </c>
       <c r="M307">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N307">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="308" spans="1:14">
@@ -15462,10 +15462,10 @@
         <v>0</v>
       </c>
       <c r="M309">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N309">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:14">
@@ -15638,10 +15638,10 @@
         <v>0</v>
       </c>
       <c r="M313">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N313">
-        <v>1.602</v>
+        <v>2.136</v>
       </c>
     </row>
     <row r="314" spans="1:14">
@@ -15682,10 +15682,10 @@
         <v>0</v>
       </c>
       <c r="M314">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N314">
-        <v>0.534</v>
+        <v>0.7120000000000001</v>
       </c>
     </row>
     <row r="315" spans="1:14">
@@ -15726,10 +15726,10 @@
         <v>0</v>
       </c>
       <c r="M315">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N315">
-        <v>1.068</v>
+        <v>1.424</v>
       </c>
     </row>
     <row r="316" spans="1:14">
@@ -15770,10 +15770,10 @@
         <v>0</v>
       </c>
       <c r="M316">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N316">
-        <v>1.068</v>
+        <v>1.424</v>
       </c>
     </row>
     <row r="317" spans="1:14">
@@ -16254,10 +16254,10 @@
         <v>0</v>
       </c>
       <c r="M327">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N327">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="328" spans="1:14">
@@ -16694,10 +16694,10 @@
         <v>0</v>
       </c>
       <c r="M337">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N337">
-        <v>1.068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:14">
@@ -17090,10 +17090,10 @@
         <v>0</v>
       </c>
       <c r="M346">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N346">
-        <v>0.051</v>
+        <v>0.08500000000000001</v>
       </c>
     </row>
     <row r="347" spans="1:14">
@@ -18058,10 +18058,10 @@
         <v>0</v>
       </c>
       <c r="M368">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N368">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:14">
@@ -18234,10 +18234,10 @@
         <v>0</v>
       </c>
       <c r="M372">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N372">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="373" spans="1:14">
@@ -18278,10 +18278,10 @@
         <v>0</v>
       </c>
       <c r="M373">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N373">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="374" spans="1:14">
@@ -18586,10 +18586,10 @@
         <v>0</v>
       </c>
       <c r="M380">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N380">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="381" spans="1:14">
@@ -18894,10 +18894,10 @@
         <v>0</v>
       </c>
       <c r="M387">
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="N387">
-        <v>6.27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="388" spans="1:14">
@@ -18982,10 +18982,10 @@
         <v>0</v>
       </c>
       <c r="M389">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N389">
-        <v>1.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:14">
@@ -19114,10 +19114,10 @@
         <v>0</v>
       </c>
       <c r="M392">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N392">
-        <v>9.843</v>
+        <v>3.281000000000001</v>
       </c>
     </row>
     <row r="393" spans="1:14">
@@ -19334,10 +19334,10 @@
         <v>0</v>
       </c>
       <c r="M397">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N397">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="398" spans="1:14">
@@ -19378,10 +19378,10 @@
         <v>0</v>
       </c>
       <c r="M398">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N398">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="399" spans="1:14">
@@ -19686,10 +19686,10 @@
         <v>0</v>
       </c>
       <c r="M405">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N405">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="406" spans="1:14">
@@ -19730,10 +19730,10 @@
         <v>0</v>
       </c>
       <c r="M406">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N406">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="407" spans="1:14">
@@ -19994,10 +19994,10 @@
         <v>0</v>
       </c>
       <c r="M412">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N412">
-        <v>1.602</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:14">
@@ -20742,10 +20742,10 @@
         <v>0</v>
       </c>
       <c r="M429">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N429">
-        <v>9.315</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="430" spans="1:14">
@@ -20918,10 +20918,10 @@
         <v>0</v>
       </c>
       <c r="M433">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N433">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="434" spans="1:14">
@@ -21006,10 +21006,10 @@
         <v>0</v>
       </c>
       <c r="M435">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N435">
-        <v>6.846</v>
+        <v>9.128</v>
       </c>
     </row>
     <row r="436" spans="1:14">
@@ -21050,10 +21050,10 @@
         <v>0</v>
       </c>
       <c r="M436">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N436">
-        <v>6.846</v>
+        <v>9.128</v>
       </c>
     </row>
     <row r="437" spans="1:14">
@@ -21094,10 +21094,10 @@
         <v>0</v>
       </c>
       <c r="M437">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N437">
-        <v>1.956</v>
+        <v>2.608</v>
       </c>
     </row>
     <row r="438" spans="1:14">
@@ -21622,10 +21622,10 @@
         <v>0</v>
       </c>
       <c r="M449">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N449">
-        <v>6.6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="450" spans="1:14">
@@ -21666,10 +21666,10 @@
         <v>0</v>
       </c>
       <c r="M450">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N450">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:14">
@@ -21886,10 +21886,10 @@
         <v>0</v>
       </c>
       <c r="M455">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N455">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="456" spans="1:14">
@@ -22062,10 +22062,10 @@
         <v>0</v>
       </c>
       <c r="M459">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N459">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="460" spans="1:14">
@@ -22106,10 +22106,10 @@
         <v>0</v>
       </c>
       <c r="M460">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N460">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="461" spans="1:14">
@@ -22150,10 +22150,10 @@
         <v>0</v>
       </c>
       <c r="M461">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N461">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="462" spans="1:14">
@@ -22854,10 +22854,10 @@
         <v>0</v>
       </c>
       <c r="M477">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N477">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="478" spans="1:14">
@@ -23338,10 +23338,10 @@
         <v>0</v>
       </c>
       <c r="M488">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N488">
-        <v>1.98</v>
+        <v>65</v>
       </c>
     </row>
     <row r="489" spans="1:14">
@@ -23646,10 +23646,10 @@
         <v>0</v>
       </c>
       <c r="M495">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N495">
-        <v>11.088</v>
+        <v>14.784</v>
       </c>
     </row>
     <row r="496" spans="1:14">
@@ -24262,10 +24262,10 @@
         <v>0</v>
       </c>
       <c r="M509">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N509">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="510" spans="1:14">
@@ -24306,10 +24306,10 @@
         <v>0</v>
       </c>
       <c r="M510">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N510">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="511" spans="1:14">
@@ -24702,10 +24702,10 @@
         <v>0</v>
       </c>
       <c r="M519">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N519">
-        <v>6.861</v>
+        <v>9.148000000000001</v>
       </c>
     </row>
     <row r="520" spans="1:14">
@@ -24790,10 +24790,10 @@
         <v>0</v>
       </c>
       <c r="M521">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N521">
-        <v>6.861</v>
+        <v>9.148000000000001</v>
       </c>
     </row>
     <row r="522" spans="1:14">
@@ -25802,10 +25802,10 @@
         <v>0</v>
       </c>
       <c r="M544">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N544">
-        <v>9.843</v>
+        <v>13.124</v>
       </c>
     </row>
     <row r="545" spans="1:14">
@@ -25890,10 +25890,10 @@
         <v>0</v>
       </c>
       <c r="M546">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N546">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="547" spans="1:14">
@@ -25934,10 +25934,10 @@
         <v>0</v>
       </c>
       <c r="M547">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N547">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="548" spans="1:14">
@@ -25978,10 +25978,10 @@
         <v>0</v>
       </c>
       <c r="M548">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N548">
-        <v>1.98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:14">
@@ -26022,7 +26022,7 @@
         <v>0</v>
       </c>
       <c r="M549">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N549">
         <v>0</v>
@@ -26066,7 +26066,7 @@
         <v>0</v>
       </c>
       <c r="M550">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N550">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="M557">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N557">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>0</v>
       </c>
       <c r="M558">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N558">
         <v>0</v>
@@ -26462,7 +26462,7 @@
         <v>0</v>
       </c>
       <c r="M559">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N559">
         <v>0</v>
@@ -26638,7 +26638,7 @@
         <v>0</v>
       </c>
       <c r="M563">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N563">
         <v>0</v>
@@ -26770,7 +26770,7 @@
         <v>0</v>
       </c>
       <c r="M566">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N566">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="M570">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N570">
         <v>0</v>
@@ -27122,10 +27122,10 @@
         <v>1</v>
       </c>
       <c r="M574">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="N574">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="575" spans="1:14">
@@ -27166,10 +27166,10 @@
         <v>0.888889</v>
       </c>
       <c r="M575">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N575">
-        <v>28.444448</v>
+        <v>21.333336</v>
       </c>
     </row>
     <row r="576" spans="1:14">
@@ -27210,10 +27210,10 @@
         <v>0.111111</v>
       </c>
       <c r="M576">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N576">
-        <v>0.444444</v>
+        <v>0.333333</v>
       </c>
     </row>
     <row r="577" spans="1:14">
@@ -27386,7 +27386,7 @@
         <v>0</v>
       </c>
       <c r="M580">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N580">
         <v>0</v>
@@ -27474,7 +27474,7 @@
         <v>0</v>
       </c>
       <c r="M582">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N582">
         <v>0</v>
@@ -27518,7 +27518,7 @@
         <v>0</v>
       </c>
       <c r="M583">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N583">
         <v>0</v>
@@ -27606,7 +27606,7 @@
         <v>0</v>
       </c>
       <c r="M585">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N585">
         <v>0</v>
@@ -27694,7 +27694,7 @@
         <v>0</v>
       </c>
       <c r="M587">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N587">
         <v>0</v>
@@ -27738,7 +27738,7 @@
         <v>0</v>
       </c>
       <c r="M588">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N588">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="M591">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N591">
         <v>0</v>
@@ -27914,7 +27914,7 @@
         <v>0</v>
       </c>
       <c r="M592">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N592">
         <v>0</v>
@@ -28354,7 +28354,7 @@
         <v>0</v>
       </c>
       <c r="M602">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N602">
         <v>0</v>
@@ -28398,7 +28398,7 @@
         <v>0</v>
       </c>
       <c r="M603">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N603">
         <v>0</v>
@@ -28486,7 +28486,7 @@
         <v>0</v>
       </c>
       <c r="M605">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N605">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="M608">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N608">
         <v>0</v>
@@ -28750,7 +28750,7 @@
         <v>0</v>
       </c>
       <c r="M611">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N611">
         <v>0</v>
@@ -28838,7 +28838,7 @@
         <v>0</v>
       </c>
       <c r="M613">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N613">
         <v>0</v>
@@ -28926,7 +28926,7 @@
         <v>0</v>
       </c>
       <c r="M615">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N615">
         <v>0</v>
@@ -28970,7 +28970,7 @@
         <v>0</v>
       </c>
       <c r="M616">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N616">
         <v>0</v>
@@ -29102,7 +29102,7 @@
         <v>0</v>
       </c>
       <c r="M619">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N619">
         <v>0</v>
@@ -29146,7 +29146,7 @@
         <v>0</v>
       </c>
       <c r="M620">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N620">
         <v>0</v>
@@ -29454,7 +29454,7 @@
         <v>0</v>
       </c>
       <c r="M627">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N627">
         <v>0</v>
@@ -29498,7 +29498,7 @@
         <v>0</v>
       </c>
       <c r="M628">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N628">
         <v>0</v>
@@ -29542,7 +29542,7 @@
         <v>0</v>
       </c>
       <c r="M629">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N629">
         <v>0</v>
@@ -29586,7 +29586,7 @@
         <v>0</v>
       </c>
       <c r="M630">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N630">
         <v>0</v>
@@ -29630,7 +29630,7 @@
         <v>0</v>
       </c>
       <c r="M631">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N631">
         <v>0</v>
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="M635">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="N635">
         <v>0</v>
@@ -29850,7 +29850,7 @@
         <v>0</v>
       </c>
       <c r="M636">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N636">
         <v>0</v>
@@ -30290,7 +30290,7 @@
         <v>0</v>
       </c>
       <c r="M646">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N646">
         <v>0</v>
@@ -30334,7 +30334,7 @@
         <v>0</v>
       </c>
       <c r="M647">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N647">
         <v>0</v>
@@ -30378,7 +30378,7 @@
         <v>0</v>
       </c>
       <c r="M648">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N648">
         <v>0</v>
@@ -30422,7 +30422,7 @@
         <v>0</v>
       </c>
       <c r="M649">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N649">
         <v>0</v>
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="M650">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N650">
         <v>0</v>
@@ -30950,7 +30950,7 @@
         <v>0</v>
       </c>
       <c r="M661">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N661">
         <v>0</v>
@@ -30994,7 +30994,7 @@
         <v>0</v>
       </c>
       <c r="M662">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N662">
         <v>0</v>
@@ -31082,7 +31082,7 @@
         <v>0</v>
       </c>
       <c r="M664">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N664">
         <v>0</v>
@@ -31258,7 +31258,7 @@
         <v>0</v>
       </c>
       <c r="M668">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N668">
         <v>0</v>
@@ -31302,7 +31302,7 @@
         <v>0</v>
       </c>
       <c r="M669">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N669">
         <v>0</v>
@@ -31346,7 +31346,7 @@
         <v>0</v>
       </c>
       <c r="M670">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N670">
         <v>0</v>
@@ -31390,7 +31390,7 @@
         <v>0</v>
       </c>
       <c r="M671">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N671">
         <v>0</v>
@@ -31434,7 +31434,7 @@
         <v>0</v>
       </c>
       <c r="M672">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N672">
         <v>0</v>
@@ -31478,7 +31478,7 @@
         <v>0</v>
       </c>
       <c r="M673">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N673">
         <v>0</v>
@@ -31522,7 +31522,7 @@
         <v>0</v>
       </c>
       <c r="M674">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N674">
         <v>0</v>
@@ -31566,7 +31566,7 @@
         <v>0</v>
       </c>
       <c r="M675">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N675">
         <v>0</v>
@@ -31610,7 +31610,7 @@
         <v>0</v>
       </c>
       <c r="M676">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N676">
         <v>0</v>
@@ -31786,7 +31786,7 @@
         <v>0</v>
       </c>
       <c r="M680">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N680">
         <v>0</v>
@@ -31874,7 +31874,7 @@
         <v>0</v>
       </c>
       <c r="M682">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N682">
         <v>0</v>
@@ -31962,7 +31962,7 @@
         <v>0</v>
       </c>
       <c r="M684">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N684">
         <v>0</v>
@@ -32006,7 +32006,7 @@
         <v>0</v>
       </c>
       <c r="M685">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N685">
         <v>0</v>
@@ -32138,7 +32138,7 @@
         <v>0</v>
       </c>
       <c r="M688">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N688">
         <v>0</v>
@@ -32182,7 +32182,7 @@
         <v>0</v>
       </c>
       <c r="M689">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N689">
         <v>0</v>
@@ -32578,10 +32578,10 @@
         <v>1</v>
       </c>
       <c r="M698">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N698">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="699" spans="1:14">
@@ -32930,10 +32930,10 @@
         <v>0.534884</v>
       </c>
       <c r="M706">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N706">
-        <v>19.6837312</v>
+        <v>14.7627984</v>
       </c>
     </row>
     <row r="707" spans="1:14">
@@ -32974,10 +32974,10 @@
         <v>0.465116</v>
       </c>
       <c r="M707">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N707">
-        <v>14.883712</v>
+        <v>11.162784</v>
       </c>
     </row>
     <row r="708" spans="1:14">
@@ -33590,7 +33590,7 @@
         <v>0</v>
       </c>
       <c r="M721">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N721">
         <v>0</v>
@@ -33678,7 +33678,7 @@
         <v>0</v>
       </c>
       <c r="M723">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N723">
         <v>0</v>
@@ -33722,7 +33722,7 @@
         <v>0</v>
       </c>
       <c r="M724">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N724">
         <v>0</v>
@@ -34074,7 +34074,7 @@
         <v>0</v>
       </c>
       <c r="M732">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N732">
         <v>0</v>
@@ -34118,7 +34118,7 @@
         <v>0</v>
       </c>
       <c r="M733">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N733">
         <v>0</v>
@@ -34162,7 +34162,7 @@
         <v>0</v>
       </c>
       <c r="M734">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N734">
         <v>0</v>
@@ -34250,7 +34250,7 @@
         <v>0</v>
       </c>
       <c r="M736">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N736">
         <v>0</v>
@@ -34338,7 +34338,7 @@
         <v>0</v>
       </c>
       <c r="M738">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N738">
         <v>0</v>
@@ -34382,7 +34382,7 @@
         <v>0</v>
       </c>
       <c r="M739">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N739">
         <v>0</v>
@@ -34426,7 +34426,7 @@
         <v>0</v>
       </c>
       <c r="M740">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N740">
         <v>0</v>
@@ -34690,7 +34690,7 @@
         <v>0</v>
       </c>
       <c r="M746">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N746">
         <v>0</v>
@@ -34954,7 +34954,7 @@
         <v>0</v>
       </c>
       <c r="M752">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N752">
         <v>0</v>
@@ -35218,7 +35218,7 @@
         <v>0</v>
       </c>
       <c r="M758">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N758">
         <v>0</v>
@@ -35438,7 +35438,7 @@
         <v>0</v>
       </c>
       <c r="M763">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N763">
         <v>0</v>
@@ -35834,10 +35834,10 @@
         <v>1</v>
       </c>
       <c r="M772">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N772">
-        <v>82.40000000000001</v>
+        <v>61.8</v>
       </c>
     </row>
     <row r="773" spans="1:14">
@@ -36054,7 +36054,7 @@
         <v>0</v>
       </c>
       <c r="M777">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N777">
         <v>0</v>
@@ -36098,7 +36098,7 @@
         <v>0</v>
       </c>
       <c r="M778">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N778">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>0</v>
       </c>
       <c r="M779">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N779">
         <v>0</v>
@@ -36186,7 +36186,7 @@
         <v>0</v>
       </c>
       <c r="M780">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N780">
         <v>0</v>
@@ -36230,7 +36230,7 @@
         <v>0</v>
       </c>
       <c r="M781">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N781">
         <v>0</v>
@@ -36274,7 +36274,7 @@
         <v>0</v>
       </c>
       <c r="M782">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N782">
         <v>0</v>
@@ -36406,7 +36406,7 @@
         <v>0</v>
       </c>
       <c r="M785">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N785">
         <v>0</v>
@@ -36538,7 +36538,7 @@
         <v>0</v>
       </c>
       <c r="M788">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N788">
         <v>0</v>
@@ -36758,7 +36758,7 @@
         <v>0</v>
       </c>
       <c r="M793">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N793">
         <v>0</v>
@@ -36890,7 +36890,7 @@
         <v>0</v>
       </c>
       <c r="M796">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N796">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="M797">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N797">
         <v>0</v>
@@ -36978,7 +36978,7 @@
         <v>0</v>
       </c>
       <c r="M798">
-        <v>0.5600000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="N798">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>0</v>
       </c>
       <c r="M802">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N802">
         <v>0</v>
@@ -37594,7 +37594,7 @@
         <v>0</v>
       </c>
       <c r="M812">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N812">
         <v>0</v>
@@ -37638,7 +37638,7 @@
         <v>0</v>
       </c>
       <c r="M813">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N813">
         <v>0</v>
@@ -37682,7 +37682,7 @@
         <v>0</v>
       </c>
       <c r="M814">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N814">
         <v>0</v>
@@ -37726,7 +37726,7 @@
         <v>0</v>
       </c>
       <c r="M815">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N815">
         <v>0</v>
@@ -37770,7 +37770,7 @@
         <v>0</v>
       </c>
       <c r="M816">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N816">
         <v>0</v>
@@ -37902,10 +37902,10 @@
         <v>0.888889</v>
       </c>
       <c r="M819">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N819">
-        <v>21.333336</v>
+        <v>28.444448</v>
       </c>
     </row>
     <row r="820" spans="1:14">
@@ -37990,7 +37990,7 @@
         <v>0</v>
       </c>
       <c r="M821">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N821">
         <v>0</v>
@@ -38034,7 +38034,7 @@
         <v>0</v>
       </c>
       <c r="M822">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N822">
         <v>0</v>
@@ -38254,7 +38254,7 @@
         <v>0</v>
       </c>
       <c r="M827">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N827">
         <v>0</v>
@@ -38430,10 +38430,10 @@
         <v>0.888889</v>
       </c>
       <c r="M831">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N831">
-        <v>21.333336</v>
+        <v>28.444448</v>
       </c>
     </row>
     <row r="832" spans="1:14">
@@ -38474,10 +38474,10 @@
         <v>0.111111</v>
       </c>
       <c r="M832">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N832">
-        <v>0.333333</v>
+        <v>0.444444</v>
       </c>
     </row>
     <row r="833" spans="1:14">
@@ -39486,7 +39486,7 @@
         <v>0</v>
       </c>
       <c r="M855">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N855">
         <v>0</v>
@@ -39926,7 +39926,7 @@
         <v>0</v>
       </c>
       <c r="M865">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N865">
         <v>0</v>
@@ -39970,7 +39970,7 @@
         <v>0</v>
       </c>
       <c r="M866">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N866">
         <v>0</v>
@@ -40058,7 +40058,7 @@
         <v>0</v>
       </c>
       <c r="M868">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N868">
         <v>0</v>
@@ -40190,7 +40190,7 @@
         <v>0</v>
       </c>
       <c r="M871">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N871">
         <v>0</v>
@@ -40454,7 +40454,7 @@
         <v>0</v>
       </c>
       <c r="M877">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N877">
         <v>0</v>
@@ -40498,7 +40498,7 @@
         <v>0</v>
       </c>
       <c r="M878">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N878">
         <v>0</v>
@@ -40542,7 +40542,7 @@
         <v>0</v>
       </c>
       <c r="M879">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N879">
         <v>0</v>
@@ -40586,7 +40586,7 @@
         <v>0</v>
       </c>
       <c r="M880">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N880">
         <v>0</v>
@@ -40894,7 +40894,7 @@
         <v>0</v>
       </c>
       <c r="M887">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N887">
         <v>0</v>
@@ -41026,7 +41026,7 @@
         <v>0</v>
       </c>
       <c r="M890">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N890">
         <v>0</v>
@@ -41114,7 +41114,7 @@
         <v>0</v>
       </c>
       <c r="M892">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N892">
         <v>0</v>
@@ -41334,7 +41334,7 @@
         <v>0</v>
       </c>
       <c r="M897">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N897">
         <v>0</v>
@@ -41378,7 +41378,7 @@
         <v>0</v>
       </c>
       <c r="M898">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N898">
         <v>0</v>
@@ -41686,7 +41686,7 @@
         <v>0</v>
       </c>
       <c r="M905">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N905">
         <v>0</v>
@@ -41730,7 +41730,7 @@
         <v>0</v>
       </c>
       <c r="M906">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N906">
         <v>0</v>
@@ -41774,7 +41774,7 @@
         <v>0</v>
       </c>
       <c r="M907">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N907">
         <v>0</v>
@@ -41950,7 +41950,7 @@
         <v>0</v>
       </c>
       <c r="M911">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N911">
         <v>0</v>
@@ -41994,7 +41994,7 @@
         <v>0</v>
       </c>
       <c r="M912">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N912">
         <v>0</v>
@@ -42258,7 +42258,7 @@
         <v>0</v>
       </c>
       <c r="M918">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N918">
         <v>0</v>
@@ -42346,7 +42346,7 @@
         <v>0</v>
       </c>
       <c r="M920">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N920">
         <v>0</v>
@@ -42390,7 +42390,7 @@
         <v>0</v>
       </c>
       <c r="M921">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N921">
         <v>0</v>
@@ -42434,7 +42434,7 @@
         <v>0</v>
       </c>
       <c r="M922">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N922">
         <v>0</v>
@@ -42478,7 +42478,7 @@
         <v>0</v>
       </c>
       <c r="M923">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N923">
         <v>0</v>
@@ -42610,7 +42610,7 @@
         <v>0</v>
       </c>
       <c r="M926">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N926">
         <v>0</v>
@@ -42830,7 +42830,7 @@
         <v>0</v>
       </c>
       <c r="M931">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N931">
         <v>0</v>
@@ -43270,7 +43270,7 @@
         <v>0</v>
       </c>
       <c r="M941">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N941">
         <v>0</v>
@@ -43314,7 +43314,7 @@
         <v>0</v>
       </c>
       <c r="M942">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N942">
         <v>0</v>
@@ -43490,7 +43490,7 @@
         <v>0</v>
       </c>
       <c r="M946">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N946">
         <v>0</v>
@@ -43534,7 +43534,7 @@
         <v>0</v>
       </c>
       <c r="M947">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N947">
         <v>0</v>
@@ -43578,7 +43578,7 @@
         <v>0</v>
       </c>
       <c r="M948">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N948">
         <v>0</v>
@@ -43622,7 +43622,7 @@
         <v>0</v>
       </c>
       <c r="M949">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N949">
         <v>0</v>
@@ -43798,7 +43798,7 @@
         <v>0</v>
       </c>
       <c r="M953">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N953">
         <v>0</v>
@@ -43886,7 +43886,7 @@
         <v>0</v>
       </c>
       <c r="M955">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N955">
         <v>0</v>
@@ -43930,7 +43930,7 @@
         <v>0</v>
       </c>
       <c r="M956">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N956">
         <v>0</v>
@@ -44018,7 +44018,7 @@
         <v>0</v>
       </c>
       <c r="M958">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N958">
         <v>0</v>
@@ -44810,7 +44810,7 @@
         <v>0</v>
       </c>
       <c r="M976">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N976">
         <v>0</v>
@@ -45162,7 +45162,7 @@
         <v>0</v>
       </c>
       <c r="M984">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N984">
         <v>0</v>
@@ -45206,7 +45206,7 @@
         <v>0</v>
       </c>
       <c r="M985">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N985">
         <v>0</v>
@@ -45338,7 +45338,7 @@
         <v>0</v>
       </c>
       <c r="M988">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N988">
         <v>0</v>
@@ -45382,7 +45382,7 @@
         <v>0</v>
       </c>
       <c r="M989">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N989">
         <v>0</v>
@@ -45778,7 +45778,7 @@
         <v>0</v>
       </c>
       <c r="M998">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N998">
         <v>0</v>
@@ -45822,7 +45822,7 @@
         <v>0</v>
       </c>
       <c r="M999">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N999">
         <v>0</v>
@@ -45910,7 +45910,7 @@
         <v>0</v>
       </c>
       <c r="M1001">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1001">
         <v>0</v>
@@ -46130,7 +46130,7 @@
         <v>0</v>
       </c>
       <c r="M1006">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1006">
         <v>0</v>
@@ -46174,7 +46174,7 @@
         <v>0</v>
       </c>
       <c r="M1007">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1007">
         <v>0</v>
@@ -46306,7 +46306,7 @@
         <v>0</v>
       </c>
       <c r="M1010">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1010">
         <v>0</v>
@@ -46350,7 +46350,7 @@
         <v>0</v>
       </c>
       <c r="M1011">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1011">
         <v>0</v>
@@ -46966,7 +46966,7 @@
         <v>0</v>
       </c>
       <c r="M1025">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1025">
         <v>0</v>
@@ -47010,7 +47010,7 @@
         <v>0</v>
       </c>
       <c r="M1026">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1026">
         <v>0</v>
@@ -47054,7 +47054,7 @@
         <v>0</v>
       </c>
       <c r="M1027">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1027">
         <v>0</v>
@@ -47098,7 +47098,7 @@
         <v>0</v>
       </c>
       <c r="M1028">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N1028">
         <v>0</v>
@@ -47186,7 +47186,7 @@
         <v>0</v>
       </c>
       <c r="M1030">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N1030">
         <v>0</v>
@@ -47230,7 +47230,7 @@
         <v>0</v>
       </c>
       <c r="M1031">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N1031">
         <v>0</v>
@@ -47406,7 +47406,7 @@
         <v>0</v>
       </c>
       <c r="M1035">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1035">
         <v>0</v>
@@ -47626,7 +47626,7 @@
         <v>0</v>
       </c>
       <c r="M1040">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N1040">
         <v>0</v>
@@ -47714,7 +47714,7 @@
         <v>0</v>
       </c>
       <c r="M1042">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1042">
         <v>0</v>
@@ -47758,7 +47758,7 @@
         <v>0</v>
       </c>
       <c r="M1043">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1043">
         <v>0</v>
@@ -47846,7 +47846,7 @@
         <v>0</v>
       </c>
       <c r="M1045">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="N1045">
         <v>0</v>
@@ -47934,7 +47934,7 @@
         <v>0</v>
       </c>
       <c r="M1047">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1047">
         <v>0</v>
@@ -48154,10 +48154,10 @@
         <v>0.888889</v>
       </c>
       <c r="M1052">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1052">
-        <v>21.333336</v>
+        <v>28.444448</v>
       </c>
     </row>
     <row r="1053" spans="1:14">
@@ -48198,10 +48198,10 @@
         <v>0.111111</v>
       </c>
       <c r="M1053">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1053">
-        <v>0.333333</v>
+        <v>0.444444</v>
       </c>
     </row>
     <row r="1054" spans="1:14">
@@ -48286,10 +48286,10 @@
         <v>0.8</v>
       </c>
       <c r="M1055">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1055">
-        <v>25.6</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="1056" spans="1:14">
@@ -48330,10 +48330,10 @@
         <v>0.1</v>
       </c>
       <c r="M1056">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1056">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="1057" spans="1:14">
@@ -48374,10 +48374,10 @@
         <v>0.1</v>
       </c>
       <c r="M1057">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1057">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="1058" spans="1:14">
@@ -48726,7 +48726,7 @@
         <v>0</v>
       </c>
       <c r="M1065">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1065">
         <v>0</v>
@@ -48902,7 +48902,7 @@
         <v>0</v>
       </c>
       <c r="M1069">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N1069">
         <v>0</v>
@@ -48946,7 +48946,7 @@
         <v>0</v>
       </c>
       <c r="M1070">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1070">
         <v>0</v>
@@ -49254,7 +49254,7 @@
         <v>0</v>
       </c>
       <c r="M1077">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1077">
         <v>0</v>
@@ -49386,7 +49386,7 @@
         <v>0</v>
       </c>
       <c r="M1080">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N1080">
         <v>0</v>
@@ -49430,7 +49430,7 @@
         <v>0</v>
       </c>
       <c r="M1081">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1081">
         <v>0</v>
@@ -49650,7 +49650,7 @@
         <v>0</v>
       </c>
       <c r="M1086">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1086">
         <v>0</v>
@@ -49738,7 +49738,7 @@
         <v>0</v>
       </c>
       <c r="M1088">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="N1088">
         <v>0</v>
@@ -49826,7 +49826,7 @@
         <v>0</v>
       </c>
       <c r="M1090">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1090">
         <v>0</v>
@@ -50266,7 +50266,7 @@
         <v>0</v>
       </c>
       <c r="M1100">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1100">
         <v>0</v>
@@ -50354,7 +50354,7 @@
         <v>0</v>
       </c>
       <c r="M1102">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1102">
         <v>0</v>
@@ -50398,7 +50398,7 @@
         <v>0</v>
       </c>
       <c r="M1103">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1103">
         <v>0</v>
@@ -50442,7 +50442,7 @@
         <v>0</v>
       </c>
       <c r="M1104">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1104">
         <v>0</v>
@@ -51146,7 +51146,7 @@
         <v>0</v>
       </c>
       <c r="M1120">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1120">
         <v>0</v>
@@ -51586,7 +51586,7 @@
         <v>0</v>
       </c>
       <c r="M1130">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1130">
         <v>0</v>
@@ -51630,7 +51630,7 @@
         <v>0</v>
       </c>
       <c r="M1131">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1131">
         <v>0</v>
@@ -51674,7 +51674,7 @@
         <v>0</v>
       </c>
       <c r="M1132">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1132">
         <v>0</v>
@@ -51806,7 +51806,7 @@
         <v>0</v>
       </c>
       <c r="M1135">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1135">
         <v>0</v>
@@ -52114,10 +52114,10 @@
         <v>1</v>
       </c>
       <c r="M1142">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1142">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1143" spans="1:14">
@@ -52158,10 +52158,10 @@
         <v>1</v>
       </c>
       <c r="M1143">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1143">
-        <v>24</v>
+        <v>65</v>
       </c>
     </row>
     <row r="1144" spans="1:14">
@@ -52554,7 +52554,7 @@
         <v>0</v>
       </c>
       <c r="M1152">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N1152">
         <v>0</v>
@@ -52598,7 +52598,7 @@
         <v>0</v>
       </c>
       <c r="M1153">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1153">
         <v>0</v>
@@ -52642,7 +52642,7 @@
         <v>0</v>
       </c>
       <c r="M1154">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1154">
         <v>0</v>
@@ -52686,7 +52686,7 @@
         <v>0</v>
       </c>
       <c r="M1155">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1155">
         <v>0</v>
@@ -52730,7 +52730,7 @@
         <v>0</v>
       </c>
       <c r="M1156">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1156">
         <v>0</v>
@@ -52774,7 +52774,7 @@
         <v>0</v>
       </c>
       <c r="M1157">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1157">
         <v>0</v>
@@ -52950,7 +52950,7 @@
         <v>0</v>
       </c>
       <c r="M1161">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N1161">
         <v>0</v>
@@ -52994,7 +52994,7 @@
         <v>0</v>
       </c>
       <c r="M1162">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1162">
         <v>0</v>
@@ -53082,7 +53082,7 @@
         <v>0</v>
       </c>
       <c r="M1164">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N1164">
         <v>0</v>
@@ -53126,7 +53126,7 @@
         <v>0</v>
       </c>
       <c r="M1165">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N1165">
         <v>0</v>
@@ -53170,7 +53170,7 @@
         <v>0</v>
       </c>
       <c r="M1166">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N1166">
         <v>0</v>
@@ -53214,7 +53214,7 @@
         <v>0</v>
       </c>
       <c r="M1167">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N1167">
         <v>0</v>
@@ -53258,7 +53258,7 @@
         <v>0</v>
       </c>
       <c r="M1168">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1168">
         <v>0</v>
@@ -53610,7 +53610,7 @@
         <v>0</v>
       </c>
       <c r="M1176">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1176">
         <v>0</v>
@@ -53698,7 +53698,7 @@
         <v>0</v>
       </c>
       <c r="M1178">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1178">
         <v>0</v>
@@ -53830,7 +53830,7 @@
         <v>0</v>
       </c>
       <c r="M1181">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1181">
         <v>0</v>
@@ -53874,7 +53874,7 @@
         <v>0</v>
       </c>
       <c r="M1182">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1182">
         <v>0</v>
@@ -53962,7 +53962,7 @@
         <v>0</v>
       </c>
       <c r="M1184">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1184">
         <v>0</v>
@@ -54358,7 +54358,7 @@
         <v>0</v>
       </c>
       <c r="M1193">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1193">
         <v>0</v>
@@ -54402,7 +54402,7 @@
         <v>0</v>
       </c>
       <c r="M1194">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1194">
         <v>0</v>
@@ -54930,7 +54930,7 @@
         <v>0</v>
       </c>
       <c r="M1206">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1206">
         <v>0</v>
@@ -54974,7 +54974,7 @@
         <v>0</v>
       </c>
       <c r="M1207">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1207">
         <v>0</v>
@@ -55018,7 +55018,7 @@
         <v>0</v>
       </c>
       <c r="M1208">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1208">
         <v>0</v>
@@ -55854,7 +55854,7 @@
         <v>0</v>
       </c>
       <c r="M1227">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1227">
         <v>0</v>
@@ -55986,7 +55986,7 @@
         <v>0</v>
       </c>
       <c r="M1230">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1230">
         <v>0</v>
@@ -56426,7 +56426,7 @@
         <v>0</v>
       </c>
       <c r="M1240">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1240">
         <v>0</v>
@@ -56690,7 +56690,7 @@
         <v>0</v>
       </c>
       <c r="M1246">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N1246">
         <v>0</v>
@@ -56734,7 +56734,7 @@
         <v>0</v>
       </c>
       <c r="M1247">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N1247">
         <v>0</v>
@@ -56778,7 +56778,7 @@
         <v>0</v>
       </c>
       <c r="M1248">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1248">
         <v>0</v>
@@ -56822,7 +56822,7 @@
         <v>0</v>
       </c>
       <c r="M1249">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1249">
         <v>0</v>
@@ -56866,7 +56866,7 @@
         <v>0</v>
       </c>
       <c r="M1250">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1250">
         <v>0</v>
@@ -57438,7 +57438,7 @@
         <v>0</v>
       </c>
       <c r="M1263">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1263">
         <v>0</v>
@@ -57702,7 +57702,7 @@
         <v>0</v>
       </c>
       <c r="M1269">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1269">
         <v>0</v>
@@ -57966,7 +57966,7 @@
         <v>0</v>
       </c>
       <c r="M1275">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1275">
         <v>0</v>
@@ -58010,7 +58010,7 @@
         <v>0</v>
       </c>
       <c r="M1276">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1276">
         <v>0</v>
@@ -58406,7 +58406,7 @@
         <v>0</v>
       </c>
       <c r="M1285">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1285">
         <v>0</v>
@@ -58626,7 +58626,7 @@
         <v>0</v>
       </c>
       <c r="M1290">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1290">
         <v>0</v>
@@ -58758,7 +58758,7 @@
         <v>0</v>
       </c>
       <c r="M1293">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1293">
         <v>0</v>
@@ -58802,7 +58802,7 @@
         <v>0</v>
       </c>
       <c r="M1294">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1294">
         <v>0</v>
@@ -58890,7 +58890,7 @@
         <v>0</v>
       </c>
       <c r="M1296">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N1296">
         <v>0</v>
@@ -58934,7 +58934,7 @@
         <v>0</v>
       </c>
       <c r="M1297">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N1297">
         <v>0</v>
@@ -59374,7 +59374,7 @@
         <v>0</v>
       </c>
       <c r="M1307">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1307">
         <v>0</v>
@@ -59682,7 +59682,7 @@
         <v>0</v>
       </c>
       <c r="M1314">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1314">
         <v>0</v>
@@ -59946,7 +59946,7 @@
         <v>0</v>
       </c>
       <c r="M1320">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1320">
         <v>0</v>
@@ -60430,7 +60430,7 @@
         <v>0</v>
       </c>
       <c r="M1331">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1331">
         <v>0</v>
@@ -60474,7 +60474,7 @@
         <v>0</v>
       </c>
       <c r="M1332">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1332">
         <v>0</v>
@@ -60518,7 +60518,7 @@
         <v>0</v>
       </c>
       <c r="M1333">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1333">
         <v>0</v>
@@ -61266,7 +61266,7 @@
         <v>0</v>
       </c>
       <c r="M1350">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1350">
         <v>0</v>
@@ -61442,7 +61442,7 @@
         <v>0</v>
       </c>
       <c r="M1354">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1354">
         <v>0</v>
@@ -61530,7 +61530,7 @@
         <v>0</v>
       </c>
       <c r="M1356">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N1356">
         <v>0</v>
@@ -61574,7 +61574,7 @@
         <v>0</v>
       </c>
       <c r="M1357">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1357">
         <v>0</v>
